--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H2">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I2">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J2">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>0.1427699325527778</v>
+        <v>0.08719367515777776</v>
       </c>
       <c r="R2">
-        <v>1.284929392975</v>
+        <v>0.7847430764199999</v>
       </c>
       <c r="S2">
-        <v>0.0001439516131395232</v>
+        <v>6.10570233332825E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001638780340243866</v>
+        <v>7.241270187732956E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H3">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I3">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J3">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>0.6433935136416666</v>
+        <v>0.5772566676846665</v>
       </c>
       <c r="R3">
-        <v>5.790541622775</v>
+        <v>5.195310009162</v>
       </c>
       <c r="S3">
-        <v>0.000648718763931515</v>
+        <v>0.0004042216796612644</v>
       </c>
       <c r="T3">
-        <v>0.0007385172930628189</v>
+        <v>0.000479400769701606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06674466666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.200234</v>
+      </c>
+      <c r="I4">
+        <v>0.0009912440954723497</v>
+      </c>
+      <c r="J4">
+        <v>0.0009958565080158308</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.07439166666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.223175</v>
-      </c>
-      <c r="I4">
-        <v>0.001568113081150489</v>
-      </c>
-      <c r="J4">
-        <v>0.001576581513651204</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>0.07953540406666666</v>
+        <v>0.042557534126</v>
       </c>
       <c r="R4">
-        <v>0.7158186366</v>
+        <v>0.383017807134</v>
       </c>
       <c r="S4">
-        <v>8.019370404106635E-05</v>
+        <v>2.980074356811149E-05</v>
       </c>
       <c r="T4">
-        <v>9.129447230748124E-05</v>
+        <v>3.534322903265564E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H5">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I5">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J5">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>0.5451860988083334</v>
+        <v>0.6493004604166667</v>
       </c>
       <c r="R5">
-        <v>3.27111659285</v>
+        <v>3.8958027625</v>
       </c>
       <c r="S5">
-        <v>0.0005496985043100111</v>
+        <v>0.0004546700582379933</v>
       </c>
       <c r="T5">
-        <v>0.0004171934732224136</v>
+        <v>0.0003594878534013399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H6">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I6">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J6">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>0.1443556901166667</v>
+        <v>0.0592571609671111</v>
       </c>
       <c r="R6">
-        <v>1.29920121105</v>
+        <v>0.533314448704</v>
       </c>
       <c r="S6">
-        <v>0.0001455504957283738</v>
+        <v>4.149459067169788E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001656982410341037</v>
+        <v>4.921195400289979E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J7">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>15.34693387194144</v>
+        <v>10.44666266357444</v>
       </c>
       <c r="R7">
-        <v>138.122404847473</v>
+        <v>94.01996397216999</v>
       </c>
       <c r="S7">
-        <v>0.01547395763316537</v>
+        <v>0.007315233872762155</v>
       </c>
       <c r="T7">
-        <v>0.01761593149388301</v>
+        <v>0.008675756213986899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J8">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
         <v>69.16104484285967</v>
@@ -948,10 +948,10 @@
         <v>622.4494035857371</v>
       </c>
       <c r="S8">
-        <v>0.06973347814578659</v>
+        <v>0.04842974586268491</v>
       </c>
       <c r="T8">
-        <v>0.07938629554041744</v>
+        <v>0.05743694267581157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J9">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>8.549591394098668</v>
+        <v>5.098812522851</v>
       </c>
       <c r="R9">
-        <v>76.94632254688801</v>
+        <v>45.88931270565899</v>
       </c>
       <c r="S9">
-        <v>0.008620354796408731</v>
+        <v>0.003570423136958193</v>
       </c>
       <c r="T9">
-        <v>0.009813622548702702</v>
+        <v>0.004234467585836921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J10">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>58.60432134910634</v>
+        <v>77.79260210104167</v>
       </c>
       <c r="R10">
-        <v>351.6259280946381</v>
+        <v>466.7556126062501</v>
       </c>
       <c r="S10">
-        <v>0.05908937858489394</v>
+        <v>0.05447395941328638</v>
       </c>
       <c r="T10">
-        <v>0.04484586166616764</v>
+        <v>0.04307019206772488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J11">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>15.51739354811267</v>
+        <v>7.099592601233778</v>
       </c>
       <c r="R11">
-        <v>139.656541933014</v>
+        <v>63.896333411104</v>
       </c>
       <c r="S11">
-        <v>0.01564582817286054</v>
+        <v>0.004971461408478821</v>
       </c>
       <c r="T11">
-        <v>0.01781159311613002</v>
+        <v>0.005896077686292797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H12">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I12">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J12">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>39.17999674515811</v>
+        <v>31.43643168359888</v>
       </c>
       <c r="R12">
-        <v>352.619970706423</v>
+        <v>282.9278851523899</v>
       </c>
       <c r="S12">
-        <v>0.03950428240331228</v>
+        <v>0.02201323592964099</v>
       </c>
       <c r="T12">
-        <v>0.04497264042136336</v>
+        <v>0.02610736330900517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H13">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I13">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J13">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>176.5648783298097</v>
+        <v>208.1216299775643</v>
       </c>
       <c r="R13">
-        <v>1589.083904968287</v>
+        <v>1873.094669798079</v>
       </c>
       <c r="S13">
-        <v>0.178026273493993</v>
+        <v>0.1457363414801243</v>
       </c>
       <c r="T13">
-        <v>0.2026694600261703</v>
+        <v>0.1728410864494331</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H14">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I14">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J14">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>21.82670270089867</v>
+        <v>15.343509856117</v>
       </c>
       <c r="R14">
-        <v>196.440324308088</v>
+        <v>138.091588705053</v>
       </c>
       <c r="S14">
-        <v>0.02200735832210086</v>
+        <v>0.01074423159253449</v>
       </c>
       <c r="T14">
-        <v>0.02505371448946901</v>
+        <v>0.01274249540408046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H15">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I15">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J15">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>149.6140622530563</v>
+        <v>234.0959883739583</v>
       </c>
       <c r="R15">
-        <v>897.684373518338</v>
+        <v>1404.57593024375</v>
       </c>
       <c r="S15">
-        <v>0.1508523904479878</v>
+        <v>0.1639247823711172</v>
       </c>
       <c r="T15">
-        <v>0.1144893650272818</v>
+        <v>0.1296082006416812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H16">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I16">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J16">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>39.61517224101267</v>
+        <v>21.36432131270755</v>
       </c>
       <c r="R16">
-        <v>356.536550169114</v>
+        <v>192.278891814368</v>
       </c>
       <c r="S16">
-        <v>0.03994305976705376</v>
+        <v>0.01496028080625493</v>
       </c>
       <c r="T16">
-        <v>0.04547215529428571</v>
+        <v>0.01774266570630463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H17">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I17">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J17">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>1.46712538554</v>
+        <v>1.222241437015</v>
       </c>
       <c r="R17">
-        <v>8.802752313239999</v>
+        <v>7.33344862209</v>
       </c>
       <c r="S17">
-        <v>0.001479268513686209</v>
+        <v>0.0008558696924254241</v>
       </c>
       <c r="T17">
-        <v>0.001122690282426639</v>
+        <v>0.0006766989665288908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H18">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I18">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J18">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>6.611608900259999</v>
+        <v>8.0917224530415</v>
       </c>
       <c r="R18">
-        <v>39.66965340156</v>
+        <v>48.550334718249</v>
       </c>
       <c r="S18">
-        <v>0.006666331976364995</v>
+        <v>0.005666196380962277</v>
       </c>
       <c r="T18">
-        <v>0.005059410147685023</v>
+        <v>0.004480015204512007</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H19">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I19">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J19">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>0.8173178222399999</v>
+        <v>0.5965522335405</v>
       </c>
       <c r="R19">
-        <v>4.90390693344</v>
+        <v>3.579313401243</v>
       </c>
       <c r="S19">
-        <v>0.0008240826121819233</v>
+        <v>0.0004177333227082707</v>
       </c>
       <c r="T19">
-        <v>0.0006254371887548076</v>
+        <v>0.0003302835820255401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H20">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I20">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J20">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>5.60241467586</v>
+        <v>9.101599701562501</v>
       </c>
       <c r="R20">
-        <v>22.40965870344</v>
+        <v>36.40639880625</v>
       </c>
       <c r="S20">
-        <v>0.005648784836180097</v>
+        <v>0.006373358897224189</v>
       </c>
       <c r="T20">
-        <v>0.002858095418748572</v>
+        <v>0.0033594252468093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H21">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I21">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J21">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>1.48342086972</v>
+        <v>0.8306400371680001</v>
       </c>
       <c r="R21">
-        <v>8.900525218319999</v>
+        <v>4.983840223008</v>
       </c>
       <c r="S21">
-        <v>0.001495698872604628</v>
+        <v>0.0005816523737433182</v>
       </c>
       <c r="T21">
-        <v>0.00113516009715184</v>
+        <v>0.0004598872511488961</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H22">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I22">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J22">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>34.90886092817512</v>
+        <v>44.7713490202811</v>
       </c>
       <c r="R22">
-        <v>314.179748353576</v>
+        <v>402.9421411825299</v>
       </c>
       <c r="S22">
-        <v>0.03519779517733135</v>
+        <v>0.0313509586199613</v>
       </c>
       <c r="T22">
-        <v>0.04007003012924484</v>
+        <v>0.03718176052775652</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H23">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I23">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J23">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>157.3169804608827</v>
+        <v>296.4040648181036</v>
       </c>
       <c r="R23">
-        <v>1415.852824147944</v>
+        <v>2667.636583362933</v>
       </c>
       <c r="S23">
-        <v>0.1586190642992099</v>
+        <v>0.2075557644396918</v>
       </c>
       <c r="T23">
-        <v>0.1805758188409307</v>
+        <v>0.246157982698444</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H24">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I24">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J24">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>19.44730455345067</v>
+        <v>21.852023215559</v>
       </c>
       <c r="R24">
-        <v>175.025740981056</v>
+        <v>196.668208940031</v>
       </c>
       <c r="S24">
-        <v>0.01960826633191789</v>
+        <v>0.01530179211895283</v>
       </c>
       <c r="T24">
-        <v>0.02232252954322062</v>
+        <v>0.01814769293370712</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H25">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I25">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J25">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>133.3041583965094</v>
+        <v>333.3964015135416</v>
       </c>
       <c r="R25">
-        <v>799.8249503790562</v>
+        <v>2000.37840908125</v>
       </c>
       <c r="S25">
-        <v>0.1344074925039999</v>
+        <v>0.2334595006989901</v>
       </c>
       <c r="T25">
-        <v>0.10200851591409</v>
+        <v>0.1845862801867157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H26">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I26">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J26">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>35.29659656181867</v>
+        <v>30.42678302994844</v>
       </c>
       <c r="R26">
-        <v>317.669369056368</v>
+        <v>273.841047269536</v>
       </c>
       <c r="S26">
-        <v>0.0355887400278098</v>
+        <v>0.02130623348602564</v>
       </c>
       <c r="T26">
-        <v>0.04051509130022506</v>
+        <v>0.02526886915417868</v>
       </c>
     </row>
   </sheetData>
